--- a/pred_ohlcv/54_21/2019-11-17 MITH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-17 MITH ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>656257.0290999999</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -548,7 +548,7 @@
         <v>656216.0290999999</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>656216.0290999999</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>1060804.129162044</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>1060804.129162044</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>1060804.129162044</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>1341217.025962044</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>1512095.824362044</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>1391519.681162044</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>1521370.342662043</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>1943805.089112738</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>1943805.089112738</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>1943805.089112738</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>1943805.089112738</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>1943805.089112738</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>1943805.089112738</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>1943805.089112738</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>1943805.089112738</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>1943805.089112738</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>1927698.776912738</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>1927698.776912738</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>1927698.776912738</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>1940271.691812738</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>1940271.691812738</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>1940271.691812738</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>1868904.591312738</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>1873012.591312738</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>1873012.591312738</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>1712436.614912738</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>1712436.614912738</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>1712436.614912738</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">

--- a/pred_ohlcv/54_21/2019-11-17 MITH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-17 MITH ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>656257.0290999999</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>656216.0290999999</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>656216.0290999999</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>656216.0290999999</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>1060804.129162044</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>1060804.129162044</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>1060804.129162044</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>1341217.025962044</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>1512095.824362044</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>1391519.681162044</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>1521370.342662043</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>1868512.509912738</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>1943805.089112738</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>1943805.089112738</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>1943805.089112738</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>1943805.089112738</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>1943805.089112738</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>1943805.089112738</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>1943805.089112738</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>1943805.089112738</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>1943805.089112738</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>1943805.089112738</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>1943805.089112738</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>1943805.089112738</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>1943805.089112738</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>1927698.776912738</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
